--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icosl-Icos.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icosl-Icos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.155534666666667</v>
+        <v>0.9151746666666666</v>
       </c>
       <c r="H2">
-        <v>3.466604</v>
+        <v>2.745524</v>
       </c>
       <c r="I2">
-        <v>0.08588454688409856</v>
+        <v>0.03290393839381934</v>
       </c>
       <c r="J2">
-        <v>0.08588454688409858</v>
+        <v>0.03290393839381934</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.03464866666666667</v>
+        <v>0.02019733333333333</v>
       </c>
       <c r="N2">
-        <v>0.103946</v>
+        <v>0.060592</v>
       </c>
       <c r="O2">
-        <v>0.2718942828070928</v>
+        <v>0.03392373653788875</v>
       </c>
       <c r="P2">
-        <v>0.2718942828070928</v>
+        <v>0.03392373653788874</v>
       </c>
       <c r="Q2">
-        <v>0.04003773548711112</v>
+        <v>0.01848408780088889</v>
       </c>
       <c r="R2">
-        <v>0.360339619384</v>
+        <v>0.166356790208</v>
       </c>
       <c r="S2">
-        <v>0.02335151727926412</v>
+        <v>0.00111622453713085</v>
       </c>
       <c r="T2">
-        <v>0.02335151727926412</v>
+        <v>0.001116224537130849</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.155534666666667</v>
+        <v>0.9151746666666666</v>
       </c>
       <c r="H3">
-        <v>3.466604</v>
+        <v>2.745524</v>
       </c>
       <c r="I3">
-        <v>0.08588454688409856</v>
+        <v>0.03290393839381934</v>
       </c>
       <c r="J3">
-        <v>0.08588454688409858</v>
+        <v>0.03290393839381934</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.02019733333333333</v>
+        <v>0.5530216666666666</v>
       </c>
       <c r="N3">
-        <v>0.06059199999999999</v>
+        <v>1.659065</v>
       </c>
       <c r="O3">
-        <v>0.1584920861201717</v>
+        <v>0.9288632816086677</v>
       </c>
       <c r="P3">
-        <v>0.1584920861201717</v>
+        <v>0.9288632816086677</v>
       </c>
       <c r="Q3">
-        <v>0.02333871884088889</v>
+        <v>0.506111419451111</v>
       </c>
       <c r="R3">
-        <v>0.210048469568</v>
+        <v>4.555002775059999</v>
       </c>
       <c r="S3">
-        <v>0.01361202100114647</v>
+        <v>0.03056326019433247</v>
       </c>
       <c r="T3">
-        <v>0.01361202100114647</v>
+        <v>0.03056326019433247</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.155534666666667</v>
+        <v>0.9151746666666666</v>
       </c>
       <c r="H4">
-        <v>3.466604</v>
+        <v>2.745524</v>
       </c>
       <c r="I4">
-        <v>0.08588454688409856</v>
+        <v>0.03290393839381934</v>
       </c>
       <c r="J4">
-        <v>0.08588454688409858</v>
+        <v>0.03290393839381934</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.03896333333333334</v>
+        <v>0.02215566666666667</v>
       </c>
       <c r="N4">
-        <v>0.11689</v>
+        <v>0.066467</v>
       </c>
       <c r="O4">
-        <v>0.3057522436392077</v>
+        <v>0.03721298185344355</v>
       </c>
       <c r="P4">
-        <v>0.3057522436392077</v>
+        <v>0.03721298185344354</v>
       </c>
       <c r="Q4">
-        <v>0.04502348239555556</v>
+        <v>0.02027630485644444</v>
       </c>
       <c r="R4">
-        <v>0.40521134156</v>
+        <v>0.182486743708</v>
       </c>
       <c r="S4">
-        <v>0.02625939290374986</v>
+        <v>0.001224453662356024</v>
       </c>
       <c r="T4">
-        <v>0.02625939290374986</v>
+        <v>0.001224453662356023</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.155534666666667</v>
+        <v>0.8102856666666666</v>
       </c>
       <c r="H5">
-        <v>3.466604</v>
+        <v>2.430857</v>
       </c>
       <c r="I5">
-        <v>0.08588454688409856</v>
+        <v>0.02913278812065911</v>
       </c>
       <c r="J5">
-        <v>0.08588454688409858</v>
+        <v>0.02913278812065911</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.033625</v>
+        <v>0.02019733333333333</v>
       </c>
       <c r="N5">
-        <v>0.100875</v>
+        <v>0.060592</v>
       </c>
       <c r="O5">
-        <v>0.2638613874335278</v>
+        <v>0.03392373653788875</v>
       </c>
       <c r="P5">
-        <v>0.2638613874335278</v>
+        <v>0.03392373653788874</v>
       </c>
       <c r="Q5">
-        <v>0.03885485316666667</v>
+        <v>0.01636560970488889</v>
       </c>
       <c r="R5">
-        <v>0.3496936785</v>
+        <v>0.147290487344</v>
       </c>
       <c r="S5">
-        <v>0.02266161569993812</v>
+        <v>0.000988293028819375</v>
       </c>
       <c r="T5">
-        <v>0.02266161569993812</v>
+        <v>0.0009882930288193747</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>2.430857</v>
       </c>
       <c r="I6">
-        <v>0.06022408443105677</v>
+        <v>0.02913278812065911</v>
       </c>
       <c r="J6">
-        <v>0.06022408443105678</v>
+        <v>0.02913278812065911</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.03464866666666667</v>
+        <v>0.5530216666666666</v>
       </c>
       <c r="N6">
-        <v>0.103946</v>
+        <v>1.659065</v>
       </c>
       <c r="O6">
-        <v>0.2718942828070928</v>
+        <v>0.9288632816086677</v>
       </c>
       <c r="P6">
-        <v>0.2718942828070928</v>
+        <v>0.9288632816086677</v>
       </c>
       <c r="Q6">
-        <v>0.02807531796911111</v>
+        <v>0.448105529856111</v>
       </c>
       <c r="R6">
-        <v>0.252677861722</v>
+        <v>4.032949768705</v>
       </c>
       <c r="S6">
-        <v>0.01637458424409598</v>
+        <v>0.02706037717616544</v>
       </c>
       <c r="T6">
-        <v>0.01637458424409598</v>
+        <v>0.02706037717616544</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>2.430857</v>
       </c>
       <c r="I7">
-        <v>0.06022408443105677</v>
+        <v>0.02913278812065911</v>
       </c>
       <c r="J7">
-        <v>0.06022408443105678</v>
+        <v>0.02913278812065911</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,33 +868,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.02019733333333333</v>
+        <v>0.02215566666666667</v>
       </c>
       <c r="N7">
-        <v>0.06059199999999999</v>
+        <v>0.066467</v>
       </c>
       <c r="O7">
-        <v>0.1584920861201717</v>
+        <v>0.03721298185344355</v>
       </c>
       <c r="P7">
-        <v>0.1584920861201717</v>
+        <v>0.03721298185344354</v>
       </c>
       <c r="Q7">
-        <v>0.01636560970488889</v>
+        <v>0.01795241913544444</v>
       </c>
       <c r="R7">
-        <v>0.147290487344</v>
+        <v>0.161571772219</v>
       </c>
       <c r="S7">
-        <v>0.009545040776155542</v>
+        <v>0.001084117915674303</v>
       </c>
       <c r="T7">
-        <v>0.009545040776155542</v>
+        <v>0.001084117915674303</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8102856666666666</v>
+        <v>17.439525</v>
       </c>
       <c r="H8">
-        <v>2.430857</v>
+        <v>52.318575</v>
       </c>
       <c r="I8">
-        <v>0.06022408443105677</v>
+        <v>0.6270158879151727</v>
       </c>
       <c r="J8">
-        <v>0.06022408443105678</v>
+        <v>0.6270158879151728</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.03896333333333334</v>
+        <v>0.02019733333333333</v>
       </c>
       <c r="N8">
-        <v>0.11689</v>
+        <v>0.060592</v>
       </c>
       <c r="O8">
-        <v>0.3057522436392077</v>
+        <v>0.03392373653788875</v>
       </c>
       <c r="P8">
-        <v>0.3057522436392077</v>
+        <v>0.03392373653788874</v>
       </c>
       <c r="Q8">
-        <v>0.03157143052555555</v>
+        <v>0.3522318996</v>
       </c>
       <c r="R8">
-        <v>0.28414287473</v>
+        <v>3.1700870964</v>
       </c>
       <c r="S8">
-        <v>0.01841364893591269</v>
+        <v>0.0212707217867047</v>
       </c>
       <c r="T8">
-        <v>0.01841364893591269</v>
+        <v>0.0212707217867047</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8102856666666666</v>
+        <v>17.439525</v>
       </c>
       <c r="H9">
-        <v>2.430857</v>
+        <v>52.318575</v>
       </c>
       <c r="I9">
-        <v>0.06022408443105677</v>
+        <v>0.6270158879151727</v>
       </c>
       <c r="J9">
-        <v>0.06022408443105678</v>
+        <v>0.6270158879151728</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.033625</v>
+        <v>0.5530216666666666</v>
       </c>
       <c r="N9">
-        <v>0.100875</v>
+        <v>1.659065</v>
       </c>
       <c r="O9">
-        <v>0.2638613874335278</v>
+        <v>0.9288632816086677</v>
       </c>
       <c r="P9">
-        <v>0.2638613874335278</v>
+        <v>0.9288632816086677</v>
       </c>
       <c r="Q9">
-        <v>0.02724585554166666</v>
+        <v>9.644435181375</v>
       </c>
       <c r="R9">
-        <v>0.2452126998749999</v>
+        <v>86.799916632375</v>
       </c>
       <c r="S9">
-        <v>0.01589081047489256</v>
+        <v>0.5824120352696599</v>
       </c>
       <c r="T9">
-        <v>0.01589081047489256</v>
+        <v>0.58241203526966</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.685238666666667</v>
+        <v>17.439525</v>
       </c>
       <c r="H10">
-        <v>11.055716</v>
+        <v>52.318575</v>
       </c>
       <c r="I10">
-        <v>0.2739035549313618</v>
+        <v>0.6270158879151727</v>
       </c>
       <c r="J10">
-        <v>0.2739035549313619</v>
+        <v>0.6270158879151728</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,33 +1054,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.03464866666666667</v>
+        <v>0.02215566666666667</v>
       </c>
       <c r="N10">
-        <v>0.103946</v>
+        <v>0.066467</v>
       </c>
       <c r="O10">
-        <v>0.2718942828070928</v>
+        <v>0.03721298185344355</v>
       </c>
       <c r="P10">
-        <v>0.2718942828070928</v>
+        <v>0.03721298185344354</v>
       </c>
       <c r="Q10">
-        <v>0.1276886061484445</v>
+        <v>0.386384302725</v>
       </c>
       <c r="R10">
-        <v>1.149197455336</v>
+        <v>3.477458724525</v>
       </c>
       <c r="S10">
-        <v>0.07447281062637577</v>
+        <v>0.02333313085880812</v>
       </c>
       <c r="T10">
-        <v>0.07447281062637577</v>
+        <v>0.02333313085880812</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.685238666666667</v>
+        <v>0.283884</v>
       </c>
       <c r="H11">
-        <v>11.055716</v>
+        <v>0.851652</v>
       </c>
       <c r="I11">
-        <v>0.2739035549313618</v>
+        <v>0.01020668729939095</v>
       </c>
       <c r="J11">
-        <v>0.2739035549313619</v>
+        <v>0.01020668729939095</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,30 +1119,30 @@
         <v>0.02019733333333333</v>
       </c>
       <c r="N11">
-        <v>0.06059199999999999</v>
+        <v>0.060592</v>
       </c>
       <c r="O11">
-        <v>0.1584920861201717</v>
+        <v>0.03392373653788875</v>
       </c>
       <c r="P11">
-        <v>0.1584920861201717</v>
+        <v>0.03392373653788874</v>
       </c>
       <c r="Q11">
-        <v>0.07443199376355555</v>
+        <v>0.005733699776</v>
       </c>
       <c r="R11">
-        <v>0.6698879438719999</v>
+        <v>0.051603297984</v>
       </c>
       <c r="S11">
-        <v>0.04341154581680258</v>
+        <v>0.0003462489708691537</v>
       </c>
       <c r="T11">
-        <v>0.04341154581680258</v>
+        <v>0.0003462489708691536</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,51 +1160,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.685238666666667</v>
+        <v>0.283884</v>
       </c>
       <c r="H12">
-        <v>11.055716</v>
+        <v>0.851652</v>
       </c>
       <c r="I12">
-        <v>0.2739035549313618</v>
+        <v>0.01020668729939095</v>
       </c>
       <c r="J12">
-        <v>0.2739035549313619</v>
+        <v>0.01020668729939095</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.03896333333333334</v>
+        <v>0.5530216666666666</v>
       </c>
       <c r="N12">
-        <v>0.11689</v>
+        <v>1.659065</v>
       </c>
       <c r="O12">
-        <v>0.3057522436392077</v>
+        <v>0.9288632816086677</v>
       </c>
       <c r="P12">
-        <v>0.3057522436392077</v>
+        <v>0.9288632816086677</v>
       </c>
       <c r="Q12">
-        <v>0.1435891825822222</v>
+        <v>0.15699400282</v>
       </c>
       <c r="R12">
-        <v>1.29230264324</v>
+        <v>1.41294602538</v>
       </c>
       <c r="S12">
-        <v>0.08374662646101885</v>
+        <v>0.009480617059265785</v>
       </c>
       <c r="T12">
-        <v>0.08374662646101885</v>
+        <v>0.009480617059265785</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.685238666666667</v>
+        <v>0.283884</v>
       </c>
       <c r="H13">
-        <v>11.055716</v>
+        <v>0.851652</v>
       </c>
       <c r="I13">
-        <v>0.2739035549313618</v>
+        <v>0.01020668729939095</v>
       </c>
       <c r="J13">
-        <v>0.2739035549313619</v>
+        <v>0.01020668729939095</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.033625</v>
+        <v>0.02215566666666667</v>
       </c>
       <c r="N13">
-        <v>0.100875</v>
+        <v>0.066467</v>
       </c>
       <c r="O13">
-        <v>0.2638613874335278</v>
+        <v>0.03721298185344355</v>
       </c>
       <c r="P13">
-        <v>0.2638613874335278</v>
+        <v>0.03721298185344354</v>
       </c>
       <c r="Q13">
-        <v>0.1239161501666667</v>
+        <v>0.006289639275999999</v>
       </c>
       <c r="R13">
-        <v>1.1152453515</v>
+        <v>0.056606753484</v>
       </c>
       <c r="S13">
-        <v>0.07227257202716462</v>
+        <v>0.0003798212692560081</v>
       </c>
       <c r="T13">
-        <v>0.07227257202716465</v>
+        <v>0.000379821269256008</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.412658</v>
+        <v>8.364660333333333</v>
       </c>
       <c r="H14">
-        <v>1.237974</v>
+        <v>25.093981</v>
       </c>
       <c r="I14">
-        <v>0.03067060328906763</v>
+        <v>0.3007406982709578</v>
       </c>
       <c r="J14">
-        <v>0.03067060328906764</v>
+        <v>0.3007406982709578</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,33 +1302,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.03464866666666667</v>
+        <v>0.02019733333333333</v>
       </c>
       <c r="N14">
-        <v>0.103946</v>
+        <v>0.060592</v>
       </c>
       <c r="O14">
-        <v>0.2718942828070928</v>
+        <v>0.03392373653788875</v>
       </c>
       <c r="P14">
-        <v>0.2718942828070928</v>
+        <v>0.03392373653788874</v>
       </c>
       <c r="Q14">
-        <v>0.01429804948933333</v>
+        <v>0.1689438329724444</v>
       </c>
       <c r="R14">
-        <v>0.128682445404</v>
+        <v>1.520494496752</v>
       </c>
       <c r="S14">
-        <v>0.008339161684541905</v>
+        <v>0.01020224821436467</v>
       </c>
       <c r="T14">
-        <v>0.008339161684541907</v>
+        <v>0.01020224821436467</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,7 +1337,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,51 +1346,51 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.412658</v>
+        <v>8.364660333333333</v>
       </c>
       <c r="H15">
-        <v>1.237974</v>
+        <v>25.093981</v>
       </c>
       <c r="I15">
-        <v>0.03067060328906763</v>
+        <v>0.3007406982709578</v>
       </c>
       <c r="J15">
-        <v>0.03067060328906764</v>
+        <v>0.3007406982709578</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.02019733333333333</v>
+        <v>0.5530216666666666</v>
       </c>
       <c r="N15">
-        <v>0.06059199999999999</v>
+        <v>1.659065</v>
       </c>
       <c r="O15">
-        <v>0.1584920861201717</v>
+        <v>0.9288632816086677</v>
       </c>
       <c r="P15">
-        <v>0.1584920861201717</v>
+        <v>0.9288632816086677</v>
       </c>
       <c r="Q15">
-        <v>0.008334591178666665</v>
+        <v>4.625838398640555</v>
       </c>
       <c r="R15">
-        <v>0.07501132060799999</v>
+        <v>41.632545587765</v>
       </c>
       <c r="S15">
-        <v>0.004861047897848528</v>
+        <v>0.279346991909244</v>
       </c>
       <c r="T15">
-        <v>0.004861047897848529</v>
+        <v>0.279346991909244</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,356 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.412658</v>
+        <v>8.364660333333333</v>
       </c>
       <c r="H16">
-        <v>1.237974</v>
+        <v>25.093981</v>
       </c>
       <c r="I16">
-        <v>0.03067060328906763</v>
+        <v>0.3007406982709578</v>
       </c>
       <c r="J16">
-        <v>0.03067060328906764</v>
+        <v>0.3007406982709578</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.03896333333333334</v>
+        <v>0.02215566666666667</v>
       </c>
       <c r="N16">
-        <v>0.11689</v>
+        <v>0.066467</v>
       </c>
       <c r="O16">
-        <v>0.3057522436392077</v>
+        <v>0.03721298185344355</v>
       </c>
       <c r="P16">
-        <v>0.3057522436392077</v>
+        <v>0.03721298185344354</v>
       </c>
       <c r="Q16">
-        <v>0.01607853120666667</v>
+        <v>0.1853246261252222</v>
       </c>
       <c r="R16">
-        <v>0.14470678086</v>
+        <v>1.667921635127</v>
       </c>
       <c r="S16">
-        <v>0.009377605769400492</v>
+        <v>0.01119145814734909</v>
       </c>
       <c r="T16">
-        <v>0.009377605769400492</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.412658</v>
-      </c>
-      <c r="H17">
-        <v>1.237974</v>
-      </c>
-      <c r="I17">
-        <v>0.03067060328906763</v>
-      </c>
-      <c r="J17">
-        <v>0.03067060328906764</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.033625</v>
-      </c>
-      <c r="N17">
-        <v>0.100875</v>
-      </c>
-      <c r="O17">
-        <v>0.2638613874335278</v>
-      </c>
-      <c r="P17">
-        <v>0.2638613874335278</v>
-      </c>
-      <c r="Q17">
-        <v>0.01387562525</v>
-      </c>
-      <c r="R17">
-        <v>0.12488062725</v>
-      </c>
-      <c r="S17">
-        <v>0.008092787937276706</v>
-      </c>
-      <c r="T17">
-        <v>0.00809278793727671</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>7.390795</v>
-      </c>
-      <c r="H18">
-        <v>22.172385</v>
-      </c>
-      <c r="I18">
-        <v>0.5493172104644152</v>
-      </c>
-      <c r="J18">
-        <v>0.5493172104644152</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.03464866666666667</v>
-      </c>
-      <c r="N18">
-        <v>0.103946</v>
-      </c>
-      <c r="O18">
-        <v>0.2718942828070928</v>
-      </c>
-      <c r="P18">
-        <v>0.2718942828070928</v>
-      </c>
-      <c r="Q18">
-        <v>0.2560811923566667</v>
-      </c>
-      <c r="R18">
-        <v>2.30473073121</v>
-      </c>
-      <c r="S18">
-        <v>0.149356208972815</v>
-      </c>
-      <c r="T18">
-        <v>0.149356208972815</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>7.390795</v>
-      </c>
-      <c r="H19">
-        <v>22.172385</v>
-      </c>
-      <c r="I19">
-        <v>0.5493172104644152</v>
-      </c>
-      <c r="J19">
-        <v>0.5493172104644152</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.02019733333333333</v>
-      </c>
-      <c r="N19">
-        <v>0.06059199999999999</v>
-      </c>
-      <c r="O19">
-        <v>0.1584920861201717</v>
-      </c>
-      <c r="P19">
-        <v>0.1584920861201717</v>
-      </c>
-      <c r="Q19">
-        <v>0.1492743502133333</v>
-      </c>
-      <c r="R19">
-        <v>1.34346915192</v>
-      </c>
-      <c r="S19">
-        <v>0.08706243062821858</v>
-      </c>
-      <c r="T19">
-        <v>0.08706243062821856</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>7.390795</v>
-      </c>
-      <c r="H20">
-        <v>22.172385</v>
-      </c>
-      <c r="I20">
-        <v>0.5493172104644152</v>
-      </c>
-      <c r="J20">
-        <v>0.5493172104644152</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M20">
-        <v>0.03896333333333334</v>
-      </c>
-      <c r="N20">
-        <v>0.11689</v>
-      </c>
-      <c r="O20">
-        <v>0.3057522436392077</v>
-      </c>
-      <c r="P20">
-        <v>0.3057522436392077</v>
-      </c>
-      <c r="Q20">
-        <v>0.2879700091833333</v>
-      </c>
-      <c r="R20">
-        <v>2.59173008265</v>
-      </c>
-      <c r="S20">
-        <v>0.1679549695691258</v>
-      </c>
-      <c r="T20">
-        <v>0.1679549695691258</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>7.390795</v>
-      </c>
-      <c r="H21">
-        <v>22.172385</v>
-      </c>
-      <c r="I21">
-        <v>0.5493172104644152</v>
-      </c>
-      <c r="J21">
-        <v>0.5493172104644152</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.033625</v>
-      </c>
-      <c r="N21">
-        <v>0.100875</v>
-      </c>
-      <c r="O21">
-        <v>0.2638613874335278</v>
-      </c>
-      <c r="P21">
-        <v>0.2638613874335278</v>
-      </c>
-      <c r="Q21">
-        <v>0.2485154818749999</v>
-      </c>
-      <c r="R21">
-        <v>2.236639336875</v>
-      </c>
-      <c r="S21">
-        <v>0.1449436012942558</v>
-      </c>
-      <c r="T21">
-        <v>0.1449436012942558</v>
+        <v>0.01119145814734909</v>
       </c>
     </row>
   </sheetData>
